--- a/FinaLProje/calisanlar.xlsx
+++ b/FinaLProje/calisanlar.xlsx
@@ -508,17 +508,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1357924680</t>
+          <t>13579246807</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ahmet</t>
+          <t>Emin</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kara</t>
+          <t>Kaynar</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>5000</v>
@@ -552,7 +552,7 @@
         <v>2415</v>
       </c>
       <c r="M2" t="n">
-        <v>5600</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="3">
@@ -563,17 +563,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0987654321</t>
+          <t>19876543214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ayşe</t>
+          <t>Zehra</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yılmaz</t>
+          <t>Benice</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>10000</v>
@@ -607,7 +607,7 @@
         <v>1457</v>
       </c>
       <c r="M3" t="n">
-        <v>12400</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4">
@@ -618,7 +618,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9876543210</t>
+          <t>98765432105</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sarı</t>
+          <t>Şirin</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
         <v>20000</v>
@@ -662,7 +662,7 @@
         <v>850</v>
       </c>
       <c r="M4" t="n">
-        <v>26000</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="5">
@@ -673,17 +673,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8745625478</t>
+          <t>87456254978</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ahmet</t>
+          <t>Kerem</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kara</t>
+          <t>Salkım</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>5000</v>
@@ -717,7 +717,7 @@
         <v>1965</v>
       </c>
       <c r="M5" t="n">
-        <v>5600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6">
@@ -733,12 +733,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ayşe</t>
+          <t>Hatice</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yılmaz</t>
+          <t>Güngörmez</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>10000</v>
@@ -772,7 +772,7 @@
         <v>500</v>
       </c>
       <c r="M6" t="n">
-        <v>12400</v>
+        <v>20005</v>
       </c>
     </row>
     <row r="7">
@@ -788,12 +788,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mehmet</t>
+          <t>Yasin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sarı</t>
+          <t>Güngörmez</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>20000</v>
@@ -827,7 +827,7 @@
         <v>600</v>
       </c>
       <c r="M7" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="8">
@@ -838,7 +838,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1247525445</t>
+          <t>12475259445</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
         <v>5700</v>
@@ -882,7 +882,7 @@
         <v>500</v>
       </c>
       <c r="M8" t="n">
-        <v>7068</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="9">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>10200</v>
@@ -937,7 +937,7 @@
         <v>2500</v>
       </c>
       <c r="M9" t="n">
-        <v>15096</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>21070</v>
@@ -992,7 +992,7 @@
         <v>500</v>
       </c>
       <c r="M10" t="n">
-        <v>33712</v>
+        <v>42640</v>
       </c>
     </row>
   </sheetData>
